--- a/reactive/semi-adaptive.xlsx
+++ b/reactive/semi-adaptive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F92980C-24F6-44C4-9364-C2878148C70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B37398-63E3-4E59-9E65-BBC8C2382338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3612" yWindow="1572" windowWidth="29844" windowHeight="14256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4308" yWindow="2268" windowWidth="29844" windowHeight="14256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:AA241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
